--- a/tests/sample_2.xlsx
+++ b/tests/sample_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amody/tetramer-validator/tetramer_validator/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amody/tetramer-validator/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8DF1B4-2A0F-0648-9745-230857D8C23F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41765467-8994-F84E-8B27-61BF6C8076B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5900" yWindow="4760" windowWidth="26040" windowHeight="14940" xr2:uid="{2AF49678-968E-344D-9974-20CC8BA0931A}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Modification Position</t>
   </si>
   <si>
-    <t>MH Name</t>
-  </si>
-  <si>
     <t>PKYVKQNTLKLAT</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>oxidation</t>
+  </si>
+  <si>
+    <t>MHC Molecule</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,35 +447,35 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/tests/sample_2.xlsx
+++ b/tests/sample_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amody/tetramer-validator/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41765467-8994-F84E-8B27-61BF6C8076B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE7E0C1-00C2-574C-B9AD-7114DBDDBF46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5900" yWindow="4760" windowWidth="26040" windowHeight="14940" xr2:uid="{2AF49678-968E-344D-9974-20CC8BA0931A}"/>
   </bookViews>
@@ -431,51 +431,51 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
